--- a/Tabliczka Mnożenia/Tabliczka.xlsx
+++ b/Tabliczka Mnożenia/Tabliczka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\john snow\Excel\Tabliczka Mnożenia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D78F43-E973-4D99-996D-91DBC03D051C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720318D5-3D46-4627-B38A-DBCC8066FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,7 +356,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +452,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>9</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -469,7 +471,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>16</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -486,7 +490,9 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>25</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
